--- a/biology/Écologie/Région_saharo-arabique/Région_saharo-arabique.xlsx
+++ b/biology/Écologie/Région_saharo-arabique/Région_saharo-arabique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_saharo-arabique</t>
+          <t>Région_saharo-arabique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La région floristique saharo-arabique regroupe les territoires du désert du Sahara, de la Jordanie et d'Israël ainsi que la péninsule arabique. Cette région est couverte par la savane, le semi-désert et le désert.
 La richesse en espèces végétales n'est pas très élevée et est estimée à un maximum de 1 500 espèces.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_saharo-arabique</t>
+          <t>Région_saharo-arabique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,41 +526,383 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Climat
-Le désert du Sahara est une région désertique qui contient des zones hyper-arides, arides, semi-arides, sub-humides et sèches.
-Sol
-Les ergs et autre sols sablonneux (couvrent environ un tiers du Sahara)
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le désert du Sahara est une région désertique qui contient des zones hyper-arides, arides, semi-arides, sub-humides et sèches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sol</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les ergs et autre sols sablonneux (couvrent environ un tiers du Sahara)
 Les regs et les sols caillouteux ou argileux
 Les hamadas et les sols rocheux
 Les sols salés et gypso-salins (occupent une petite partie du Sahara essentiellement localisée dans le Sahara septentrional)
-Oasis et oueds permanents et semi-permanents
-Quantité et distribution des espèces végétales
-Les zones hyper-arides représentent environ le tiers de la superficie du Sahara. À l'intérieur de ces zones hyper-arides se trouvent des zones dites nues, sans la moindre végétation.
+Oasis et oueds permanents et semi-permanents</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quantité et distribution des espèces végétales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zones hyper-arides représentent environ le tiers de la superficie du Sahara. À l'intérieur de ces zones hyper-arides se trouvent des zones dites nues, sans la moindre végétation.
 Il y a une uniformité du paysage végétal, dû au faible nombre de substrats différents, aux peu d'espèces végétales ainsi que l'aridité extrême du climat.
-Type de végétation
-Ergs et sols ensablés
-La végétation dans les ergs est surtout constituée d’Aristida pungens, Ephedra alata, Retama raetam, Genista saharae, Calligonum azel'' pour les plantes arbustives. La végétation des plantes herbacées est essentiellement caractérisée par la présence de Cyperus conglomeratus, Moltikia ciliata et Danthonia fragilis.
-Regs et substrats caillouteux ou argileux
-La plus grande partie des regs sont nus dû aux conditions extrêmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Type de végétation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ergs et sols ensablés</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La végétation dans les ergs est surtout constituée d’Aristida pungens, Ephedra alata, Retama raetam, Genista saharae, Calligonum azel'' pour les plantes arbustives. La végétation des plantes herbacées est essentiellement caractérisée par la présence de Cyperus conglomeratus, Moltikia ciliata et Danthonia fragilis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Type de végétation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Regs et substrats caillouteux ou argileux</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande partie des regs sont nus dû aux conditions extrêmes.
 Dans les regs sableux se trouvent des Aristida, notamment Aristida obtusa, Aristida plumosa et Aristida ciliata, qui forment un tapis dense. De plus nous trouvons des végétaux bulbeux, tels que des Androcymbium et Asphodèles, et des plantes annuelles, telles que des Daucus et des Ammodaucus. Ce milieu est assez riche en espèces comparé au reg caillouteux.
 Les regs argilo-sableux sont essentiellement composés de Cornulaca monocantha et Randonia africana. Ce terrain est souvent une aire de transition végétale entre le reg et l’erg.
 Dans les regs caillouteux on trouve le groupement Haloxylon scoparium composé de Pergularia tomentosa et quelques plantes bulbeuses et des plantains. Ce terrain présente très peu de richesses dans sa diversité d’espèce.
-Hamada et sol rocheux
-Dans les hamadas ainsi que sur les falaises et les pentes, on trouve une végétation relativement riche et variée qui est constituée d’une forte partie par des plantes rares ou endémiques. Les espèces représentatives de ce milieu sont Limoniastrum feei, Withania adpressa, Trichodesma calcaratum, Eremophyton chevallieri, Mesembryanthemum theurkaufii, Fagonia zilloides, Diplotaxis pitardiana, Plantago akkensisi, Foleyolla billotii, Cocculus pendulus, Maerua crassifolia, Gymnosporia senegalensis, Aristida adscensionis, Cymbopognon Schoenanthus, Moricandia suffruticosa, Lotus roudairei, Forskahlea tenacissima, Senecio flavus, Perralderia coronopifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Type de végétation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hamada et sol rocheux</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les hamadas ainsi que sur les falaises et les pentes, on trouve une végétation relativement riche et variée qui est constituée d’une forte partie par des plantes rares ou endémiques. Les espèces représentatives de ce milieu sont Limoniastrum feei, Withania adpressa, Trichodesma calcaratum, Eremophyton chevallieri, Mesembryanthemum theurkaufii, Fagonia zilloides, Diplotaxis pitardiana, Plantago akkensisi, Foleyolla billotii, Cocculus pendulus, Maerua crassifolia, Gymnosporia senegalensis, Aristida adscensionis, Cymbopognon Schoenanthus, Moricandia suffruticosa, Lotus roudairei, Forskahlea tenacissima, Senecio flavus, Perralderia coronopifolia.
 Les plateaux horizontaux ou peu accidentés sont caractérisés par Fagonia glutinosa, Fredolia aretioides, des plantes annuelles (Erodium, Lifago, Convulvus supinus et des plantes bulbeuses (Urginea). Tout comme les regs la majeure partie des plateaux est nue.
-Les sols salés et gypso-salins
-Il y a une végétation variée qui se retrouve dans tout le Sahara et suit un gradient de concentration, dispersion et richesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Type de végétation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les sols salés et gypso-salins</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a une végétation variée qui se retrouve dans tout le Sahara et suit un gradient de concentration, dispersion et richesse.
 Ce gradient est à son maximum aux limites septentrionales du Sahara et diminue jusqu'au Sahara central et méridional. L'alliance Limoniastrion guyoniani, l'ordre des Salsoleto-Nitrarietalia et la classe des Salicornietea sont représentatifs de ce milieu.
 Les sols salés un peu secs sont recouverts par une steppe constituée principalement de Chénopodiacées vivaces (Salsola foetida, Traganum nudatum, Salsola siebera) et par Zygophyllum album. Cependant cette végétation est assez instable car aussitôt qu’il y a un peu d’humidité, il y a une formation à Tamarix.
 Dans les terrains très salés, on retrouve Tamarix boveana, Tamarix balansae, Tamarix pauciovulata, Atriplex halimus, Suaeda fruticosa, Suaeda vermiculata, Traganum, Cornulaca, Frankein et Zygophyllum.
-Groupement hygrophile
-Il est difficile de parler de groupement pour les oasis mais on y retrouve fréquemment les mêmes espèces : Samolus valerandi, Juncus maritimus, Scirpus boloschoenus, Tamarix gallica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Type de végétation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Groupement hygrophile</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il est difficile de parler de groupement pour les oasis mais on y retrouve fréquemment les mêmes espèces : Samolus valerandi, Juncus maritimus, Scirpus boloschoenus, Tamarix gallica.
 Cependant pour les oueds il existe deux associations végétales : 
 Tamarix gallica ssp. nilotica et Nerium oleander
-Tamarix pauciovulata et Moricandia foleyi
-Flore endémique[1]
-Il n'y a pas de famille végétale complète endémique, seulement des espèces endémiques.
-Le Sahara occidental
+Tamarix pauciovulata et Moricandia foleyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Flore endémique[1]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de famille végétale complète endémique, seulement des espèces endémiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Flore endémique[1]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Le Sahara occidental</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ephedra alata
 Ephedra altissima
 Pancratium saharae
@@ -582,7 +936,47 @@
 Centaurea pungens
 Stephanochilus omphalodes
 Amberboa perralderiana.
-Le Sahara septentrional
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Flore endémique[1]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Le Sahara septentrional</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Urginea noctiflora
 Aristida brachyathera
 Anabasis oropediorum
@@ -618,13 +1012,93 @@
 Centaurea furfuracea
 Tourneuxia variifolia
 Launaea acanthoclada.
-Le Sahara océanique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Flore endémique[1]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Le Sahara océanique</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fagonia harpago
 Zygophyllum waterlotii
 Limoniastrum weygandiorum
 Limoniastrum ifniense
 Echiochilon chazaliei.
-Le Sahara central
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Flore endémique[1]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Le Sahara central</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cupressus dupreziana
 Potamogeton hoggariensis
 Bromus garamas
@@ -659,97 +1133,449 @@
 Senecio hoggariensis
 Centaurea foucaudiana
 Artactylis aristata.
-Les familles végétales importantes au Sahara
-La flore saharienne présente des différences sensibles face à sa voisine la flore méditerranéenne dans sa composition systématique. Le climat désertique a créé un appauvrissement général mais inégalement marqué d'une famille à l'autre, ce qui n'a pas été compensé par un facteur de diversification. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Le Sahara</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les familles végétales importantes au Sahara</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore saharienne présente des différences sensibles face à sa voisine la flore méditerranéenne dans sa composition systématique. Le climat désertique a créé un appauvrissement général mais inégalement marqué d'une famille à l'autre, ce qui n'a pas été compensé par un facteur de diversification. 
 Les familles importantes sont les Chéniopodaceae, les Crucifères et les Zygophyllacées.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_saharo-arabique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Jordanie et Israël</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Climat
-Le climat est à teneur sec et chaud. Il passe de tropical à désertique.
-La végétation de la Jordanie et d'Israël
-Les associations végétales dépendent beaucoup du type de sol : hamada, hamada sableuse, hamada à ruissellement, hamada caillouteuse et basaltique.
-Hamada à ruissellement
-Le terrain est composé de sable, gravier et certaines zones avec du limon et de l’argile.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat est à teneur sec et chaud. Il passe de tropical à désertique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Jordanie et Israël</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>La végétation de la Jordanie et d'Israël</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les associations végétales dépendent beaucoup du type de sol : hamada, hamada sableuse, hamada à ruissellement, hamada caillouteuse et basaltique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jordanie et Israël</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>La végétation de la Jordanie et d'Israël</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hamada à ruissellement</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terrain est composé de sable, gravier et certaines zones avec du limon et de l’argile.
 Les plantes trouvées communément dans ce terrain sont Tamarix spp., Retama raetam, Acacia tortilis, Artemisia judaica, Artemisia monosperme, Pistacia atlantica et Amygdalus arabica se retrouvent dans des conditions de micro-climat qui permet le stockage de l’humidité.
-Hamada sableuse
-Ce terrain est fait de dunes sablonneuses et de terrains sédimenteux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jordanie et Israël</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>La végétation de la Jordanie et d'Israël</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hamada sableuse</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terrain est fait de dunes sablonneuses et de terrains sédimenteux.
 Les plantes trouvées communément dans ce terrain sont Seidlitzia rosmarinus, Capparis leucophylla, Ephedra transitoria, Calligonum tetrapterum.
-Hamada caillouteuse
-C'est un terrain de basalte caillouteux et graveleux. Les espèces dominantes de ce terrain sont Salsola vermiculata et Halogeton alopercuroides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Jordanie et Israël</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>La végétation de la Jordanie et d'Israël</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hamada caillouteuse</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un terrain de basalte caillouteux et graveleux. Les espèces dominantes de ce terrain sont Salsola vermiculata et Halogeton alopercuroides.
 La zone graveleuse occupe une grande partie du désert de Jordanie.
 L’espèce dominante de ce type de terrain est Seidlitzia rosmarinus. Les espèces les plus communes de ce terrains graveleux sont Spergularia diandra, Anthemis desertis, Gymnarrhena micrantha et Spita capensis.
-Les Playas
-L’espèce dominante ce type de terrain est Nitraria retusa, Alhagi maurorum, différentes espèces de Tamarix, Suaeda et Juncus.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_saharo-arabique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jordanie et Israël</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>La végétation de la Jordanie et d'Israël</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Les Playas</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce dominante ce type de terrain est Nitraria retusa, Alhagi maurorum, différentes espèces de Tamarix, Suaeda et Juncus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>La péninsule arabique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Climat
-Cette région est recouverte d’un lourd brouillard durant une grande majorité de l'année ce qui en résulte des conditions très humides. Cela permet une grande diversité en espèces végétales qui entourent le désert.
-La végétation de la péninsule arabique
-Littoral et sol salé (Sabkhas)
-Cette zone est caractérisée par des petites, grandes dunes et des marais salés.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette région est recouverte d’un lourd brouillard durant une grande majorité de l'année ce qui en résulte des conditions très humides. Cela permet une grande diversité en espèces végétales qui entourent le désert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>La péninsule arabique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>La végétation de la péninsule arabique</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Littoral et sol salé (Sabkhas)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette zone est caractérisée par des petites, grandes dunes et des marais salés.
 La végétation est généralement dispersée et pauvre. Ce milieu est constitué par Halocnemum strobilaceum, Halopeplis perfoliata, Limonium axillare, Nitraria retusa, Odyssea mucronata, Suaeda monoica, Suaeda vermiculata, Zygophyllum coccinium, Zygophyllum simplex, Aeluropus lagopoides, Cressa cretica, Hyphaene thebaica, Leptadenia pyrotechnica, Limonium axillare, Odyssea mucronata, Seidlitzia rosmarinus, Suaeda monoica et Zygophyllum coccineum.
 On retrouve aussi des mangroves caractérisées par Avicennia marina et Rhizophora mucronata.
-Désert
-Les déserts de roche et de gravier sont constitués d'Acacia tortilis, Haloxylon salicornicum, Astragalus spinosus, Gymnocarpos decandrum, Achillea fragrantissima, Halothamnus bottae, Tephrosia apollinea, Salvadora persica, Cadaba farinosa, Leptadenia pyrotechnica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>La péninsule arabique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>La végétation de la péninsule arabique</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Désert</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les déserts de roche et de gravier sont constitués d'Acacia tortilis, Haloxylon salicornicum, Astragalus spinosus, Gymnocarpos decandrum, Achillea fragrantissima, Halothamnus bottae, Tephrosia apollinea, Salvadora persica, Cadaba farinosa, Leptadenia pyrotechnica.
 Les déserts sableux sont recouverts par Calligonum comosum, Haloxylon persicum, Calligonum crinitum ssp. arabicum, Dipterygium glaucum, Tribulus macropterus var. arabicus, Artemisia monosperma, Centropodia forsskalii, Stipagrostis drarii, Scrophularia hypercifolia, Eremobium aegyptiacum, Cyperus conglomeratus, Cutandia memphitica, Plantago boissieri, Acacia spp.
-Montagnes
-Elles sont recouvertes par des forêts de feuillus, d’épineux et d’arbustes dans des zones sèches. Leur végétation est connue pour pousser très haut en altitude (2 000 mètres), la montagne sert d'important refuge pour une grande variété de plantes et d'espèces endémiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Région_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_saharo-arabique</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>La péninsule arabique</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>La végétation de la péninsule arabique</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Montagnes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont recouvertes par des forêts de feuillus, d’épineux et d’arbustes dans des zones sèches. Leur végétation est connue pour pousser très haut en altitude (2 000 mètres), la montagne sert d'important refuge pour une grande variété de plantes et d'espèces endémiques.
 Les espèces dominantes sont :
 Acacia asak
 Acacia ehrenbergiana
